--- a/Lorax EPI Assessment.xlsx
+++ b/Lorax EPI Assessment.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27813"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27916"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11AE9B22-9EC8-469A-971A-DACB41D8258D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48833F29-3B29-46E5-BA5A-BD78B539E2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -48,12 +48,12 @@
     <t>Test Steps</t>
   </si>
   <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
     <t>Test Data</t>
   </si>
   <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
     <t>Actual Result</t>
   </si>
   <si>
@@ -63,6 +63,155 @@
     <t>TC001</t>
   </si>
   <si>
+    <t>Validate the First Name and Last name input field.</t>
+  </si>
+  <si>
+    <t>Check whether the First name and Last Name field accepts vaild inputs.</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Launch the application.
+2.Navigate to the registration page.
+3.Enter a valid first name in the First Name  field. 
+4.Enter a valid last name in the Late Name  field. </t>
+  </si>
+  <si>
+    <t>&lt;Valid Data&gt;
+eg. Test User</t>
+  </si>
+  <si>
+    <t>The user should be able to enter valid name to the first name and last name text field.</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>Check whether the First name and Last Name field does not accepts invaild inputs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Launch the application.
+2.Navigate to the registration page.
+3.Enter a invalid first name in the First Name  field. 
+4.Enter a invalid last name in the Last Name  field. </t>
+  </si>
+  <si>
+    <t>&lt;Invalid Data&gt;
+eg. Test123 User5, Test@ £4s6.</t>
+  </si>
+  <si>
+    <t>The user should not be able to enter invalid  name to the first name text field. (eg. special characters should not be allowed)</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>Check whether the First name and Last Name field does not accepts maximum and minimun length of charactes.</t>
+  </si>
+  <si>
+    <t>&lt;Invalid Data&gt;
+eg. TestUserfromFunctionaltesting User, IAmTesting TheApplication.</t>
+  </si>
+  <si>
+    <t>The user should not be able to enter invalid  name to the first name and last name text field. 
+Should not be allowed to enter the maximun character or minimum character length.</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>Validate the email input field.</t>
+  </si>
+  <si>
+    <t>Check whether the email field accepts vaild inputs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Launch the application.
+2.Navigate to the registration page.
+3.Enter a valid email  in the Email  field. 
+</t>
+  </si>
+  <si>
+    <t>&lt;Valid Data&gt;
+eg. testuser@lorax.com</t>
+  </si>
+  <si>
+    <t>The user should be able to enter email to the Email field.</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>Check whether the email field does not accepts invaild inputs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"1.Launch the application.
+2.Navigate to the registration page.
+3.Enter an invalid email  in the Email  field. </t>
+  </si>
+  <si>
+    <t>&lt;Invalid Data&gt;
+eg. gail.com@testuser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should not be able to enter invalid  emai to the emai text field. </t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>Validate the password input field.</t>
+  </si>
+  <si>
+    <t>Check whether the password field accepts vaild inputs.</t>
+  </si>
+  <si>
+    <t>1.Launch the application.
+2.Navigate to the registration page.
+3.Enter a valid password.</t>
+  </si>
+  <si>
+    <t>&lt;Valid Data&gt;
+eg. Password@123</t>
+  </si>
+  <si>
+    <t>The user should be able to enter valid password to the password text field.</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>Check whether the password field matches maximum and minimun length of charactes.</t>
+  </si>
+  <si>
+    <t>1.Launch the application.
+2.Navigate to the registration page.
+3.Enter a maximun or minimun characters.</t>
+  </si>
+  <si>
+    <t>The user should not be able to enter invalid password format.
+Should not be allowed to enter the maximun character or minimum character length, should follow standards.</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>Check whether the password field matches valid password format.</t>
+  </si>
+  <si>
+    <t>1.Launch the application.
+2.Navigate to the registration page.
+3.Enter a invalid password format.</t>
+  </si>
+  <si>
+    <t>The user should not be able to enter invalid password format.
+Standards should as one uper case, one lower case,  specials charcter should be included.</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
     <t>Valid Registration</t>
   </si>
   <si>
@@ -72,14 +221,14 @@
     <t>The user should not be registered to the application, email should be unique.</t>
   </si>
   <si>
-    <t>Launch the application.
-Navigate to the registration page.
-Enter a valid first name in the First Name  field.
-Enter a valid last name in the Last Name  field.
-Enter a valid and unique email address in the Email  field.
-Enter a valid password in the Password field.
-Optionally, enter additional valid information in the optional fields.
-Click on the Submit button.</t>
+    <t>1.Launch the application.
+2.Navigate to the registration page.
+3.Enter a valid first name in the First Name  field.
+4.Enter a valid last name in the Last Name  field.
+5.Enter a valid and unique email address in the Email  field.
+6.Enter a valid password in the Password field.
+7.Optionally, enter additional valid information in the optional fields.
+8.Click on the Submit button.</t>
   </si>
   <si>
     <t>&lt;Valid Data&gt;
@@ -89,7 +238,7 @@
     <t>The user is successfully registered and redirected to the login page.</t>
   </si>
   <si>
-    <t>TC002</t>
+    <t>TC010</t>
   </si>
   <si>
     <t>Missing Required Fields</t>
@@ -98,12 +247,12 @@
     <t>Verify that the user cannot register without filling in all the required fields.</t>
   </si>
   <si>
-    <t>Launch the application.
-Navigate to the registration page.
-Leave the First Name field empty.
-Enter a valid last name in the Last Name field.
-Enter a valid and unique email address in the Email field.
-Enter a valid password in the Password field.
+    <t>1. Launch the application.
+2.Navigate to the registration page.
+3.Leave the First Name field empty.
+4.Enter a valid last name in the Last Name field.
+5.Enter a valid and unique email address in the Email field.
+6.Enter a valid password in the Password field.
 Click on the Submit button.</t>
   </si>
   <si>
@@ -118,7 +267,7 @@
     <t>Reapeat the test case for other text fields.</t>
   </si>
   <si>
-    <t>TC003</t>
+    <t>TC011</t>
   </si>
   <si>
     <t>Invalid Email Format</t>
@@ -131,13 +280,13 @@
 </t>
   </si>
   <si>
-    <t>Launch the application.
-Navigate to the registration page.
-Enter a valid first name in the First Name field.
-Enter a valid last name in the Last Name field.
-Enter an invalid email format in the Email field.
-Enter a valid password in the Password field.
-Click on the Submit button.</t>
+    <t>1.Launch the application.
+2.Navigate to the registration page.
+3.Enter a valid first name in the First Name field.
+4.Enter a valid last name in the Last Name field.
+5.Enter an invalid email format in the Email field.
+6.Enter a valid password in the Password field.
+7.Click on the Submit button.</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;Valid Data&gt;
@@ -148,7 +297,7 @@
     <t>An error message is displayed indicating that the email format is invalid.</t>
   </si>
   <si>
-    <t>TC004</t>
+    <t>TC012</t>
   </si>
   <si>
     <t>Password Minimum Length</t>
@@ -157,13 +306,13 @@
     <t xml:space="preserve">Verify that the user cannot register with a password that does not meet the minimum length requirement or hasn't met requirement. </t>
   </si>
   <si>
-    <t>Launch the application.
-Navigate to the registration page.
-Enter a valid first name in the First Name field.
-Enter a valid last name in the Last Name field.
-Enter a valid and unique email address in the Email field.
-Enter a password that is shorter than the minimum length requirement.
-Click on the Submit button.</t>
+    <t>1.Launch the application.
+2.Navigate to the registration page.
+3.Enter a valid first name in the First Name field.
+4.Enter a valid last name in the Last Name field.
+5.Enter a valid and unique email address in the Email field.
+6.Enter a password that is shorter than the minimum length requirement.
+7.Click on the Submit button.</t>
   </si>
   <si>
     <t>&lt;Valid Data&gt;
@@ -175,7 +324,7 @@
     <t>An error message is displayed indicating that the password is too short.</t>
   </si>
   <si>
-    <t>TC005</t>
+    <t>TC013</t>
   </si>
   <si>
     <t>Duplicate Email Address</t>
@@ -187,13 +336,13 @@
     <t>The user should  be registered to the application, email should not be unique.</t>
   </si>
   <si>
-    <t>Launch the application.
-Navigate to the registration page.
-Enter a valid first name in the First Name field.
-Enter a valid last name in the Last Name field.
-Enter an email address that is already registered in the Email field.
-Enter a valid password in the Password field.
-Click on the Submit button.</t>
+    <t>1.Launch the application.
+2.Navigate to the registration page.
+3.Enter a valid first name in the First Name field.
+4.Enter a valid last name in the Last Name field.
+5.Enter an email address that is already registered in the Email field.
+6.Enter a valid password in the Password field.
+7.Click on the Submit button.</t>
   </si>
   <si>
     <t>&lt;Valid Data&gt;
@@ -204,7 +353,7 @@
 </t>
   </si>
   <si>
-    <t>TC006</t>
+    <t>TC014</t>
   </si>
   <si>
     <t>Maximum Length for Fields</t>
@@ -213,13 +362,13 @@
     <t>Verify that the user cannot register with values that exceed the maximum length for each field.</t>
   </si>
   <si>
-    <t>Launch the application.
-Navigate to the registration page.
-Enter a first name that exceeds the maximum length in the First Name field.
-Enter a last name that exceeds the maximum length in the Last Name field.
-Enter a valid and unique email address in the Email field.
-Enter a valid password in the Password field.
-Click on the Submit button.</t>
+    <t>1.Launch the application.
+2.Navigate to the registration page.
+3.Enter a first name that exceeds the maximum length in the First Name field.
+4.Enter a last name that exceeds the maximum length in the Last Name field.
+5.Enter a valid and unique email address in the Email field.
+6.Enter a valid password in the Password field.
+7.Click on the Submit button.</t>
   </si>
   <si>
     <t>&lt;Maximum length data&gt;</t>
@@ -228,7 +377,7 @@
     <t>An error message is displayed indicating that the values entered exceed the maximum length for the respective fields.</t>
   </si>
   <si>
-    <t>TC007</t>
+    <t>TC015</t>
   </si>
   <si>
     <t>Optional Fields</t>
@@ -237,21 +386,21 @@
     <t>Verify that the user can register without filling in the optional fields.</t>
   </si>
   <si>
-    <t>Launch the application.
-Navigate to the registration page.
-Enter a valid first name in the First Name field.
-Enter a valid last name in the Last Name field.
-Enter a valid and unique email address in the Email field.
-Enter a valid password in the Password field.
-Leave the optional fields empty.
-Click on the Submit button.</t>
+    <t>1.Launch the application.
+2.Navigate to the registration page.
+3.Enter a valid first name in the First Name field.
+4.Enter a valid last name in the Last Name field.
+5.Enter a valid and unique email address in the Email field.
+6.Enter a valid password in the Password field.
+7.Leave the optional fields empty.
+8.Click on the Submit button.</t>
   </si>
   <si>
     <t>&lt;Empty optional field&gt;
 &lt;Valid data&gt;</t>
   </si>
   <si>
-    <t>TC008</t>
+    <t>TC016</t>
   </si>
   <si>
     <t>Password Maximum Length</t>
@@ -260,20 +409,20 @@
     <t>Verify that the user cannot register with a password that exceeds the maximum length requirement.</t>
   </si>
   <si>
-    <t>Launch the application.
-Navigate to the registration page.
-Enter a valid first name in the First Name field.
-Enter a valid last name in the Last Name field.
-Enter a valid and unique email address in the Email field.
-Enter a password that exceeds the maximum length requirement.
-Click on the Submit button.</t>
+    <t>1.Launch the application.
+2.Navigate to the registration page.
+3.Enter a valid first name in the First Name field.
+4.Enter a valid last name in the Last Name field.
+5.Enter a valid and unique email address in the Email field.
+6.Enter a password that exceeds the maximum length requirement.
+7.Click on the Submit button.</t>
   </si>
   <si>
     <t xml:space="preserve">An error message is displayed indicating that the password is too long.
 </t>
   </si>
   <si>
-    <t>TC009</t>
+    <t>TC017</t>
   </si>
   <si>
     <t xml:space="preserve">Invalid Characters in Name Fields
@@ -283,13 +432,13 @@
     <t>Verify that the user cannot register with invalid characters in the name fields.</t>
   </si>
   <si>
-    <t>Launch the application.
-Navigate to the registration page.
-Enter a first name with invalid characters  First Name field.
-Enter a last name with invalid characters (e.g., "Doe@!") in the Last Name field.
-Enter a valid and unique email address in the Email field.
-Enter a valid password in the Password field.
-Click on the Submit button.</t>
+    <t>1.Launch the application.
+2.Navigate to the registration page.
+3.Enter a first name with invalid characters  First Name field.
+4.Enter a last name with invalid characters (e.g., "Doe@!") in the Last Name field.
+5.Enter a valid and unique email address in the Email field.
+6.Enter a valid password in the Password field.
+7.Click on the Submit button.</t>
   </si>
   <si>
     <t>&lt;Invalid character&gt; (e.g., "John123")</t>
@@ -298,7 +447,7 @@
     <t>An error message is displayed indicating that the name fields contain invalid characters.</t>
   </si>
   <si>
-    <t>TC010</t>
+    <t>TC018</t>
   </si>
   <si>
     <t>Email Field Left Empty</t>
@@ -310,13 +459,13 @@
     <t>The user should not be registered to the application.</t>
   </si>
   <si>
-    <t>Launch the application.
-Navigate to the registration page.
-Enter a valid first name in the First Name field.
-Enter a valid last name in the Last Name field.
-Leave the Email field empty.
-Enter a valid password in the Password field.
-Click on the Submit button.</t>
+    <t>1.Launch the application.
+2.Navigate to the registration page.
+3.Enter a valid first name in the First Name field.
+4.Enter a valid last name in the Last Name field.
+5.Leave the Email field empty.
+6.Enter a valid password in the Password field.
+7.Click on the Submit button.</t>
   </si>
   <si>
     <t>&lt;Valid Data&gt;
@@ -326,7 +475,7 @@
     <t>An error message is displayed indicating that the email field is required.</t>
   </si>
   <si>
-    <t>TC011</t>
+    <t>TC019</t>
   </si>
   <si>
     <t>Email Field With Spaces</t>
@@ -335,20 +484,20 @@
     <t>Verify that the user cannot register with spaces in the email address.</t>
   </si>
   <si>
-    <t>Launch the application.
-Navigate to the registration page.
-Enter a valid first name in the First Name field.
-Enter a valid last name in the Last Name field.
-Enter an email address with spaces in the Email field.
-Enter a valid password in the Password field.
-Click on the Submit button.</t>
+    <t>1.Launch the application.
+2.Navigate to the registration page.
+3.Enter a valid first name in the First Name field.
+4.Enter a valid last name in the Last Name field.
+5.Enter an email address with spaces in the Email field.
+6.Enter a valid password in the Password field.
+7.Click on the Submit button.</t>
   </si>
   <si>
     <t>&lt;Valid Data&gt;
 &lt;Space in email id&gt;</t>
   </si>
   <si>
-    <t>TC012</t>
+    <t>TC020</t>
   </si>
   <si>
     <t>Password with Spaces</t>
@@ -357,20 +506,20 @@
     <t>Verify that the user can register with a password that includes spaces.</t>
   </si>
   <si>
-    <t>Launch the application.
-Navigate to the registration page.
-Enter a valid first name in the First Name field.
-Enter a valid last name in the Last Name field.
-Enter a valid and unique email address in the Email field.
-Enter a valid password that includes spaces  in the Password field.
-Click on the Submit button.</t>
+    <t>1.Launch the application.
+2.Navigate to the registration page.
+3.Enter a valid first name in the First Name field.
+4.Enter a valid last name in the Last Name field.
+5.Enter a valid and unique email address in the Email field.
+6.Enter a valid password that includes spaces  in the Password field.
+7.Click on the Submit button.</t>
   </si>
   <si>
     <t>&lt;Valid Data&gt;
 (eg. My Password 123)</t>
   </si>
   <si>
-    <t>TC013</t>
+    <t>TC021</t>
   </si>
   <si>
     <t>Multiple Consecutive Submissions</t>
@@ -379,12 +528,12 @@
     <t>Verify that the user cannot submit the registration form multiple times consecutively.</t>
   </si>
   <si>
-    <t>Navigate to the registration page.
-Enter a valid first name in the First Name field.
-Enter a valid last name in the Last Name field.
-Enter a valid and unique email address in the Email field.
-Enter a valid password in the Password field.
-Click on the Submit button multiple times quickly.</t>
+    <t>1.Navigate to the registration page.
+2.Enter a valid first name in the First Name field.
+3.Enter a valid last name in the Last Name field.
+4.Enter a valid and unique email address in the Email field.
+5.Enter a valid password in the Password field.
+6.Click on the Submit button multiple times quickly.</t>
   </si>
   <si>
     <t>&lt;Valid Data&gt;</t>
@@ -393,19 +542,19 @@
     <t>The system processes only one submission and prevents multiple consecutive submissions.</t>
   </si>
   <si>
-    <t>TC014</t>
+    <t>TC022</t>
   </si>
   <si>
     <t>Empty  Fields</t>
   </si>
   <si>
-    <t>Launch the application.
-Navigate to the registration page.
-Leave the First Name field empty.
-Leave the  last name in the Last Name field empty.
-Leave the   unique email address in the Email field empty.
-Leave the  password in the Password field empty.
-Click on the Submit button.</t>
+    <t>1.Launch the application.
+2.Navigate to the registration page.
+3.Leave the First Name field empty.
+4.Leave the  last name in the Last Name field empty.
+5.Leave the   unique email address in the Email field empty.
+6.Leave the  password in the Password field empty.
+7.Click on the Submit button.</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;Empty fields&gt;
@@ -414,6 +563,60 @@
   </si>
   <si>
     <t>An error message is displayed indicating that the  field is required.</t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t>Validate the optional input field.</t>
+  </si>
+  <si>
+    <t>Check whether the optional field accepts or invalidvaild inputs.</t>
+  </si>
+  <si>
+    <t>1.Launch the application.
+2.Navigate to the registration page.
+3.Enter a valid/invalid optional field.</t>
+  </si>
+  <si>
+    <t>The user should be able to enter valid /invalid optinal text field.</t>
+  </si>
+  <si>
+    <t>TC024</t>
+  </si>
+  <si>
+    <t>Cross browser validation</t>
+  </si>
+  <si>
+    <t>Check whether all the above testcase in different browsers</t>
+  </si>
+  <si>
+    <t>1.Launch the application.
+2.Navigate to the registration page.
+3. perform al the above testcases in chrome/ firefox, safari etc browsers.</t>
+  </si>
+  <si>
+    <t>&lt;test case specific data&gt;</t>
+  </si>
+  <si>
+    <t>follow the same test result for the all testcases( should work similar in all the browsers.</t>
+  </si>
+  <si>
+    <t>Use diferent browsers.</t>
+  </si>
+  <si>
+    <t>TC025</t>
+  </si>
+  <si>
+    <t>Cross platform validation</t>
+  </si>
+  <si>
+    <t>Check whether all the above testcase in different devices/platforms</t>
+  </si>
+  <si>
+    <t>1.Launch the application.
+2.Navigate to the registration page.
+3. perform al the above testcases in mobile, laptop, desktop, in macOs, ios, android</t>
   </si>
 </sst>
 </file>
@@ -430,21 +633,19 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -494,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -502,14 +703,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,27 +1043,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:I15"/>
+      <selection activeCell="C15" sqref="A1:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="45.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36">
+    <row r="1" spans="1:9" ht="18.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -894,366 +1092,643 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="148.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" ht="81">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="145.5" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="148.5" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="145.5" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="138" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="138" customHeight="1">
+      <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="155.25" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="155.25" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="138.75">
-      <c r="A6" s="2" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="48.75">
+      <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="150" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="150" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="F8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="142.5" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="142.5" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="165.75" customHeight="1">
+      <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="153.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="147" customHeight="1">
+      <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="189" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="2" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="174" customHeight="1">
+      <c r="A12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="140.25" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="146.25">
+      <c r="A13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="160.5" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="165.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="129">
+      <c r="A14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="147" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="162">
+      <c r="A15" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="D15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="174" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="167.25" customHeight="1">
+      <c r="A16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
-        <v>22</v>
+      <c r="D16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="158.25" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="162">
+      <c r="A18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="113.25">
+      <c r="A19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="129">
+      <c r="A20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="146.25">
+      <c r="A21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="129">
+      <c r="A22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="162">
+      <c r="A23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="84" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="64.5">
+      <c r="A25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="64.5">
+      <c r="A26" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
